--- a/assets/default_calibrations/pfm/20220805_pfm_55Fe109Cd137Cs_10deg_thr105_LV0d5/report_cal.xlsx
+++ b/assets/default_calibrations/pfm/20220805_pfm_55Fe109Cd137Cs_10deg_thr105_LV0d5/report_cal.xlsx
@@ -423,19 +423,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>165.3874534453691</v>
+        <v>165.3874534453711</v>
       </c>
       <c r="C2">
-        <v>0.3898651216496545</v>
+        <v>0.3898651266611894</v>
       </c>
       <c r="D2">
-        <v>16025.46591660656</v>
+        <v>16025.4659166065</v>
       </c>
       <c r="E2">
-        <v>7.849286546073959</v>
+        <v>7.849286583841497</v>
       </c>
       <c r="F2">
-        <v>20.75411753904064</v>
+        <v>20.75411753899411</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,19 +443,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>140.499518962627</v>
+        <v>140.4995189653325</v>
       </c>
       <c r="C3">
-        <v>1.309907948464361</v>
+        <v>1.309907968236485</v>
       </c>
       <c r="D3">
-        <v>15881.93010981486</v>
+        <v>15881.93010976591</v>
       </c>
       <c r="E3">
-        <v>29.05681150225569</v>
+        <v>29.05681304839796</v>
       </c>
       <c r="F3">
-        <v>136.2134653256709</v>
+        <v>136.2134654670505</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,19 +463,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>164.394643144942</v>
+        <v>164.3946431679523</v>
       </c>
       <c r="C4">
-        <v>0.3997946783172133</v>
+        <v>0.3997946463930358</v>
       </c>
       <c r="D4">
-        <v>16291.92425892353</v>
+        <v>16291.92425871586</v>
       </c>
       <c r="E4">
-        <v>7.955193231529847</v>
+        <v>7.955192530169867</v>
       </c>
       <c r="F4">
-        <v>29.01608690996713</v>
+        <v>29.01608684673017</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,19 +483,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>156.9551877295685</v>
+        <v>156.9551876009227</v>
       </c>
       <c r="C5">
-        <v>1.088953694478819</v>
+        <v>1.088953695947759</v>
       </c>
       <c r="D5">
-        <v>15171.70086714883</v>
+        <v>15171.70087071151</v>
       </c>
       <c r="E5">
-        <v>26.2369517927938</v>
+        <v>26.2369518694568</v>
       </c>
       <c r="F5">
-        <v>35.04353302214213</v>
+        <v>35.04353372278455</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>157.8081531817173</v>
+        <v>157.8081531709297</v>
       </c>
       <c r="C6">
-        <v>0.8322816468475636</v>
+        <v>0.8322816304482954</v>
       </c>
       <c r="D6">
-        <v>15776.46956089418</v>
+        <v>15776.46956119571</v>
       </c>
       <c r="E6">
-        <v>19.76300423387207</v>
+        <v>19.76300379427803</v>
       </c>
       <c r="F6">
-        <v>69.24731663632522</v>
+        <v>69.24731662430227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,19 +523,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>165.9994331386948</v>
+        <v>165.9994331124201</v>
       </c>
       <c r="C7">
-        <v>0.4225508942086325</v>
+        <v>0.4225509030293494</v>
       </c>
       <c r="D7">
-        <v>15956.23427853444</v>
+        <v>15956.23427896433</v>
       </c>
       <c r="E7">
-        <v>8.131699005401849</v>
+        <v>8.131699033612692</v>
       </c>
       <c r="F7">
-        <v>78.83027339670505</v>
+        <v>78.8302734590911</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,19 +543,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>180.9855783595241</v>
+        <v>180.9855783561993</v>
       </c>
       <c r="C8">
-        <v>0.1739212635629666</v>
+        <v>0.1739212682691002</v>
       </c>
       <c r="D8">
-        <v>15227.36930849959</v>
+        <v>15227.36930862413</v>
       </c>
       <c r="E8">
-        <v>3.214247859571484</v>
+        <v>3.214247932773951</v>
       </c>
       <c r="F8">
-        <v>13.58226834331436</v>
+        <v>13.5822683309359</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,19 +563,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>150.7084800117256</v>
+        <v>150.7084800117126</v>
       </c>
       <c r="C9">
-        <v>0.5169362680590804</v>
+        <v>0.5169362680683715</v>
       </c>
       <c r="D9">
-        <v>16190.06928018556</v>
+        <v>16190.06928018576</v>
       </c>
       <c r="E9">
-        <v>9.321520434792111</v>
+        <v>9.32152043484526</v>
       </c>
       <c r="F9">
-        <v>50.72169672001579</v>
+        <v>50.72169671998756</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,19 +583,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>174.4933537195082</v>
+        <v>174.4933537342606</v>
       </c>
       <c r="C10">
-        <v>0.3176241001489947</v>
+        <v>0.3176240974484159</v>
       </c>
       <c r="D10">
-        <v>15698.77311568149</v>
+        <v>15698.77311539036</v>
       </c>
       <c r="E10">
-        <v>5.804668531748137</v>
+        <v>5.804668442176314</v>
       </c>
       <c r="F10">
-        <v>18.95942667038121</v>
+        <v>18.95942668765365</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,19 +603,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>173.6608709936052</v>
+        <v>173.6608709958394</v>
       </c>
       <c r="C11">
-        <v>0.3361097270912192</v>
+        <v>0.3361097036666865</v>
       </c>
       <c r="D11">
-        <v>15600.55782289769</v>
+        <v>15600.55782288535</v>
       </c>
       <c r="E11">
-        <v>5.695508385723302</v>
+        <v>5.695508276120616</v>
       </c>
       <c r="F11">
-        <v>30.296790623023</v>
+        <v>30.29679053785154</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -623,19 +623,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>181.2073397900876</v>
+        <v>181.2073397959715</v>
       </c>
       <c r="C12">
-        <v>0.2006364225304277</v>
+        <v>0.2006364359577489</v>
       </c>
       <c r="D12">
-        <v>16327.21821134133</v>
+        <v>16327.21821114532</v>
       </c>
       <c r="E12">
-        <v>4.129252620576448</v>
+        <v>4.129252919880569</v>
       </c>
       <c r="F12">
-        <v>19.39174785162177</v>
+        <v>19.39174761475104</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -643,19 +643,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>161.0481279957071</v>
+        <v>161.0481279730829</v>
       </c>
       <c r="C13">
-        <v>0.6004806365667567</v>
+        <v>0.6004805993364939</v>
       </c>
       <c r="D13">
-        <v>16244.83481139088</v>
+        <v>16244.83481195355</v>
       </c>
       <c r="E13">
-        <v>12.41832519185834</v>
+        <v>12.41832435538091</v>
       </c>
       <c r="F13">
-        <v>53.98191967853122</v>
+        <v>53.98191974521437</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,19 +663,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>174.6272676142006</v>
+        <v>174.6272676139361</v>
       </c>
       <c r="C14">
-        <v>0.1718815121300502</v>
+        <v>0.1718815109155431</v>
       </c>
       <c r="D14">
-        <v>15621.38497993189</v>
+        <v>15621.38497993276</v>
       </c>
       <c r="E14">
-        <v>2.920198124661246</v>
+        <v>2.920198122129699</v>
       </c>
       <c r="F14">
-        <v>10.7323192723617</v>
+        <v>10.73231935271641</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -683,19 +683,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>163.4920086162293</v>
+        <v>163.4920084997716</v>
       </c>
       <c r="C15">
-        <v>1.025739447790075</v>
+        <v>1.025739443463649</v>
       </c>
       <c r="D15">
-        <v>15860.06069692013</v>
+        <v>15860.06069966329</v>
       </c>
       <c r="E15">
-        <v>25.16228484448107</v>
+        <v>25.16228472895613</v>
       </c>
       <c r="F15">
-        <v>21.52782570860233</v>
+        <v>21.52782550001316</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -703,19 +703,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>179.4319760636602</v>
+        <v>179.4319760588598</v>
       </c>
       <c r="C16">
-        <v>0.1258424843693253</v>
+        <v>0.1258424750266268</v>
       </c>
       <c r="D16">
-        <v>16090.58358305574</v>
+        <v>16090.58358312737</v>
       </c>
       <c r="E16">
-        <v>2.621467356122138</v>
+        <v>2.621467301475912</v>
       </c>
       <c r="F16">
-        <v>6.656171664360425</v>
+        <v>6.656171634635021</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -723,19 +723,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>161.3331994849321</v>
+        <v>161.3331994663878</v>
       </c>
       <c r="C17">
-        <v>0.3662963178182907</v>
+        <v>0.3662962943860176</v>
       </c>
       <c r="D17">
-        <v>15577.16502437849</v>
+        <v>15577.16502496502</v>
       </c>
       <c r="E17">
-        <v>8.445789429298202</v>
+        <v>8.445788890884231</v>
       </c>
       <c r="F17">
-        <v>21.43804710777235</v>
+        <v>21.43804710206865</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -743,19 +743,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>158.4837926959705</v>
+        <v>158.4837927018169</v>
       </c>
       <c r="C18">
-        <v>0.4841978476452699</v>
+        <v>0.4841978849628847</v>
       </c>
       <c r="D18">
-        <v>15424.1440874817</v>
+        <v>15424.14408705279</v>
       </c>
       <c r="E18">
-        <v>9.6729148652579</v>
+        <v>9.672915086026835</v>
       </c>
       <c r="F18">
-        <v>57.04151682051588</v>
+        <v>57.04151697866651</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -763,19 +763,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>173.6213070920478</v>
+        <v>173.6213070925332</v>
       </c>
       <c r="C19">
-        <v>0.6081907360263515</v>
+        <v>0.6081907212980355</v>
       </c>
       <c r="D19">
-        <v>15756.59908184907</v>
+        <v>15756.59908187306</v>
       </c>
       <c r="E19">
-        <v>12.8290161943745</v>
+        <v>12.8290161158045</v>
       </c>
       <c r="F19">
-        <v>46.6883546702614</v>
+        <v>46.68835423885561</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -783,19 +783,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>157.2359653633593</v>
+        <v>157.235965384553</v>
       </c>
       <c r="C20">
-        <v>1.093017800247516</v>
+        <v>1.093017799291835</v>
       </c>
       <c r="D20">
-        <v>15338.82669919965</v>
+        <v>15338.82669866071</v>
       </c>
       <c r="E20">
-        <v>26.78852570156594</v>
+        <v>26.78852567753567</v>
       </c>
       <c r="F20">
-        <v>205.9911812172141</v>
+        <v>205.9911808694851</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -803,19 +803,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>163.2730754989471</v>
+        <v>163.2730755424041</v>
       </c>
       <c r="C21">
-        <v>0.6732717181554835</v>
+        <v>0.6732717056364723</v>
       </c>
       <c r="D21">
-        <v>16328.54827687678</v>
+        <v>16328.54827554993</v>
       </c>
       <c r="E21">
-        <v>15.06189440526763</v>
+        <v>15.06189425733148</v>
       </c>
       <c r="F21">
-        <v>86.76303786748845</v>
+        <v>86.76303726618141</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -823,19 +823,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>177.62784665312</v>
+        <v>177.627846660315</v>
       </c>
       <c r="C22">
-        <v>0.1121464226887594</v>
+        <v>0.1121464231455472</v>
       </c>
       <c r="D22">
-        <v>16415.73379925861</v>
+        <v>16415.73379924422</v>
       </c>
       <c r="E22">
-        <v>1.949565464802281</v>
+        <v>1.949565595284439</v>
       </c>
       <c r="F22">
-        <v>14.3513090052262</v>
+        <v>14.35130900524018</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -843,19 +843,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>181.6487454898035</v>
+        <v>181.648745491985</v>
       </c>
       <c r="C23">
-        <v>0.2030037804870705</v>
+        <v>0.2030037870305263</v>
       </c>
       <c r="D23">
-        <v>15847.3787318191</v>
+        <v>15847.37873177627</v>
       </c>
       <c r="E23">
-        <v>2.805639020328451</v>
+        <v>2.805639002747614</v>
       </c>
       <c r="F23">
-        <v>23.27983477052003</v>
+        <v>23.27983486565523</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -863,19 +863,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>173.8354825734413</v>
+        <v>173.8354825902697</v>
       </c>
       <c r="C24">
-        <v>0.2409772151678206</v>
+        <v>0.2409772517167779</v>
       </c>
       <c r="D24">
-        <v>15559.42695652486</v>
+        <v>15559.42695611217</v>
       </c>
       <c r="E24">
-        <v>5.227691123050763</v>
+        <v>5.227691669334191</v>
       </c>
       <c r="F24">
-        <v>24.83897120317885</v>
+        <v>24.83897119362011</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -883,19 +883,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>173.7673870650503</v>
+        <v>173.7673870644572</v>
       </c>
       <c r="C25">
-        <v>0.4782235255110164</v>
+        <v>0.4782234906450524</v>
       </c>
       <c r="D25">
-        <v>16397.25794551445</v>
+        <v>16397.2579457525</v>
       </c>
       <c r="E25">
-        <v>10.17479321218726</v>
+        <v>10.17479301282512</v>
       </c>
       <c r="F25">
-        <v>127.97180511668</v>
+        <v>127.9718049749025</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -903,19 +903,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>170.5129219886545</v>
+        <v>170.5129220127729</v>
       </c>
       <c r="C26">
-        <v>0.259334226888106</v>
+        <v>0.2593342303165032</v>
       </c>
       <c r="D26">
-        <v>16240.80815085942</v>
+        <v>16240.80815040909</v>
       </c>
       <c r="E26">
-        <v>5.07632506880454</v>
+        <v>5.076325078053265</v>
       </c>
       <c r="F26">
-        <v>18.64772614931948</v>
+        <v>18.64772614099975</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -923,19 +923,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>164.5337121044464</v>
+        <v>164.5337121146929</v>
       </c>
       <c r="C27">
-        <v>0.5978700729751535</v>
+        <v>0.5978700267211573</v>
       </c>
       <c r="D27">
-        <v>15891.34428149869</v>
+        <v>15891.34428125185</v>
       </c>
       <c r="E27">
-        <v>14.15621221314783</v>
+        <v>14.15621196140277</v>
       </c>
       <c r="F27">
-        <v>65.09793050514631</v>
+        <v>65.0979305051404</v>
       </c>
     </row>
   </sheetData>
@@ -976,19 +976,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>150.2204277344284</v>
+        <v>150.2204277988168</v>
       </c>
       <c r="C2">
-        <v>1.264442684243777</v>
+        <v>1.264442688807415</v>
       </c>
       <c r="D2">
-        <v>15916.87497937467</v>
+        <v>15916.87497772303</v>
       </c>
       <c r="E2">
-        <v>30.58872306382983</v>
+        <v>30.58872311881758</v>
       </c>
       <c r="F2">
-        <v>130.4168515192566</v>
+        <v>130.416851994263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -996,19 +996,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>174.4752950403942</v>
+        <v>174.4752950427606</v>
       </c>
       <c r="C3">
-        <v>0.3633029877577964</v>
+        <v>0.3633029681800105</v>
       </c>
       <c r="D3">
-        <v>15835.05533144065</v>
+        <v>15835.05533133672</v>
       </c>
       <c r="E3">
-        <v>7.405472748755456</v>
+        <v>7.405472811610124</v>
       </c>
       <c r="F3">
-        <v>32.59778319148469</v>
+        <v>32.59778335801773</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1016,19 +1016,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>196.0779519189185</v>
+        <v>196.0779519214875</v>
       </c>
       <c r="C4">
-        <v>0.04495981460887522</v>
+        <v>0.04495981532251864</v>
       </c>
       <c r="D4">
-        <v>15595.4562373449</v>
+        <v>15595.45623730324</v>
       </c>
       <c r="E4">
-        <v>0.8425394889874765</v>
+        <v>0.8425395050711991</v>
       </c>
       <c r="F4">
-        <v>0.3992258957366023</v>
+        <v>0.3992258939795181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1036,19 +1036,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>175.7292681742196</v>
+        <v>175.7292681799398</v>
       </c>
       <c r="C5">
-        <v>0.3351561429278553</v>
+        <v>0.3351561427002714</v>
       </c>
       <c r="D5">
-        <v>15286.89017543737</v>
+        <v>15286.89017559655</v>
       </c>
       <c r="E5">
-        <v>7.31631729876416</v>
+        <v>7.316317307407818</v>
       </c>
       <c r="F5">
-        <v>42.97124609308489</v>
+        <v>42.97124611988595</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1056,19 +1056,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>161.6631950464996</v>
+        <v>161.6631950014565</v>
       </c>
       <c r="C6">
-        <v>1.326410327523015</v>
+        <v>1.326410326713449</v>
       </c>
       <c r="D6">
-        <v>15456.94124612593</v>
+        <v>15456.94124681796</v>
       </c>
       <c r="E6">
-        <v>32.01197623753355</v>
+        <v>32.01197622041857</v>
       </c>
       <c r="F6">
-        <v>2682.227765271714</v>
+        <v>2682.227763561872</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1076,19 +1076,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>155.8260461003576</v>
+        <v>155.8260460742977</v>
       </c>
       <c r="C7">
-        <v>0.6831861025562884</v>
+        <v>0.6831861004773903</v>
       </c>
       <c r="D7">
-        <v>15267.08815792401</v>
+        <v>15267.08815854134</v>
       </c>
       <c r="E7">
-        <v>16.23401688581901</v>
+        <v>16.23401680054135</v>
       </c>
       <c r="F7">
-        <v>70.53068958463069</v>
+        <v>70.53068958463251</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1096,19 +1096,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>153.41832141246</v>
+        <v>153.4183214334412</v>
       </c>
       <c r="C8">
-        <v>0.5191366083960187</v>
+        <v>0.519136608468035</v>
       </c>
       <c r="D8">
-        <v>15391.7661448008</v>
+        <v>15391.76614479883</v>
       </c>
       <c r="E8">
-        <v>11.68837636436242</v>
+        <v>11.68837636437652</v>
       </c>
       <c r="F8">
-        <v>88.09752463137289</v>
+        <v>88.09752463134325</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1116,19 +1116,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>192.9477123148822</v>
+        <v>192.9477123148823</v>
       </c>
       <c r="C9">
-        <v>0.01464104630524672</v>
+        <v>0.01464104660616136</v>
       </c>
       <c r="D9">
         <v>16493.02408003946</v>
       </c>
       <c r="E9">
-        <v>0.296235583218318</v>
+        <v>0.2962355815589649</v>
       </c>
       <c r="F9">
-        <v>0.06838961825896664</v>
+        <v>0.06838961826016179</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1136,19 +1136,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>148.8722063287652</v>
+        <v>148.8722063741243</v>
       </c>
       <c r="C10">
-        <v>0.6697003184648255</v>
+        <v>0.6697003108764947</v>
       </c>
       <c r="D10">
-        <v>15737.82726257488</v>
+        <v>15737.82726185644</v>
       </c>
       <c r="E10">
-        <v>12.85741521538173</v>
+        <v>12.85741515516932</v>
       </c>
       <c r="F10">
-        <v>49.66281560155878</v>
+        <v>49.66281560155173</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1156,19 +1156,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>176.6115249033685</v>
+        <v>176.6115248177335</v>
       </c>
       <c r="C11">
-        <v>0.8194656180715265</v>
+        <v>0.8194656350821724</v>
       </c>
       <c r="D11">
-        <v>15764.62678352502</v>
+        <v>15764.62678562004</v>
       </c>
       <c r="E11">
-        <v>19.714123498943</v>
+        <v>19.71412431748183</v>
       </c>
       <c r="F11">
-        <v>49.71352776171684</v>
+        <v>49.71352821702571</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1176,19 +1176,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>175.8040064238494</v>
+        <v>175.8040064049681</v>
       </c>
       <c r="C12">
-        <v>0.9716797311209315</v>
+        <v>0.9716796871087747</v>
       </c>
       <c r="D12">
-        <v>15958.57777402996</v>
+        <v>15958.57777453992</v>
       </c>
       <c r="E12">
-        <v>22.812622635043</v>
+        <v>22.81262150804744</v>
       </c>
       <c r="F12">
-        <v>104.4455926232667</v>
+        <v>104.4455926232415</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1196,19 +1196,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>179.7747491920041</v>
+        <v>179.774749192663</v>
       </c>
       <c r="C13">
-        <v>0.3336785794651801</v>
+        <v>0.3336785771686072</v>
       </c>
       <c r="D13">
-        <v>15246.03716956852</v>
+        <v>15246.03716955492</v>
       </c>
       <c r="E13">
-        <v>7.34620872899822</v>
+        <v>7.346208767078466</v>
       </c>
       <c r="F13">
-        <v>15.03834464707708</v>
+        <v>15.0383446470684</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1216,19 +1216,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>157.8019239886965</v>
+        <v>157.8019239885074</v>
       </c>
       <c r="C14">
-        <v>0.8401864137966779</v>
+        <v>0.8401864205421176</v>
       </c>
       <c r="D14">
-        <v>15818.22580123408</v>
+        <v>15818.22580156068</v>
       </c>
       <c r="E14">
-        <v>17.93930858415884</v>
+        <v>17.93930960990772</v>
       </c>
       <c r="F14">
-        <v>50.14555498726463</v>
+        <v>50.14555493257438</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1236,19 +1236,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>167.017224348804</v>
+        <v>167.0172243128522</v>
       </c>
       <c r="C15">
-        <v>0.5642449047942245</v>
+        <v>0.56424488757379</v>
       </c>
       <c r="D15">
-        <v>15420.23014906128</v>
+        <v>15420.23014974265</v>
       </c>
       <c r="E15">
-        <v>11.31458151496657</v>
+        <v>11.31458132622479</v>
       </c>
       <c r="F15">
-        <v>43.97515009664206</v>
+        <v>43.97514995334522</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1256,19 +1256,19 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>168.2797048273198</v>
+        <v>168.27970482459</v>
       </c>
       <c r="C16">
-        <v>0.6552157843702494</v>
+        <v>0.6552157339659596</v>
       </c>
       <c r="D16">
-        <v>15825.76908983684</v>
+        <v>15825.76908990024</v>
       </c>
       <c r="E16">
-        <v>13.7605695993284</v>
+        <v>13.76056936392429</v>
       </c>
       <c r="F16">
-        <v>58.75434732710852</v>
+        <v>58.75434733988925</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1276,19 +1276,19 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>170.7987310288223</v>
+        <v>170.7987310291893</v>
       </c>
       <c r="C17">
-        <v>0.3172089030224652</v>
+        <v>0.3172089039573052</v>
       </c>
       <c r="D17">
-        <v>16228.75480482188</v>
+        <v>16228.75480481294</v>
       </c>
       <c r="E17">
-        <v>6.646876519724231</v>
+        <v>6.64687656805656</v>
       </c>
       <c r="F17">
-        <v>14.50478373920114</v>
+        <v>14.50478373731594</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1296,19 +1296,19 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>142.9842853172968</v>
+        <v>142.9842853173082</v>
       </c>
       <c r="C18">
-        <v>0.4937539115444063</v>
+        <v>0.4937539981821086</v>
       </c>
       <c r="D18">
-        <v>16122.54643070417</v>
+        <v>16122.54643070397</v>
       </c>
       <c r="E18">
-        <v>10.37854811767213</v>
+        <v>10.37854937549351</v>
       </c>
       <c r="F18">
-        <v>76.88433367296648</v>
+        <v>76.88433367296308</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1316,19 +1316,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>165.9340739464088</v>
+        <v>165.9340739443438</v>
       </c>
       <c r="C19">
-        <v>0.4673127169838796</v>
+        <v>0.4673127540176516</v>
       </c>
       <c r="D19">
-        <v>15528.38787022079</v>
+        <v>15528.3878702716</v>
       </c>
       <c r="E19">
-        <v>10.97543777891657</v>
+        <v>10.97543805958617</v>
       </c>
       <c r="F19">
-        <v>33.57181044888523</v>
+        <v>33.57181044886745</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1336,19 +1336,19 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>164.8112445823701</v>
+        <v>164.8112445683972</v>
       </c>
       <c r="C20">
-        <v>0.4229080345414559</v>
+        <v>0.4229080669291853</v>
       </c>
       <c r="D20">
-        <v>16532.39339774628</v>
+        <v>16532.39339831567</v>
       </c>
       <c r="E20">
-        <v>10.32712124748068</v>
+        <v>10.3271220437903</v>
       </c>
       <c r="F20">
-        <v>11.98400412113537</v>
+        <v>11.98400412113945</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1356,19 +1356,19 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>151.7956006109931</v>
+        <v>151.7956006376434</v>
       </c>
       <c r="C21">
-        <v>1.339488201587825</v>
+        <v>1.339488331268112</v>
       </c>
       <c r="D21">
-        <v>15973.16742280307</v>
+        <v>15973.16742207176</v>
       </c>
       <c r="E21">
-        <v>31.76628273092692</v>
+        <v>31.76628406658985</v>
       </c>
       <c r="F21">
-        <v>80.35010695072876</v>
+        <v>80.3501069510001</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1376,19 +1376,19 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>179.0920030353849</v>
+        <v>179.0920030196805</v>
       </c>
       <c r="C22">
-        <v>0.1521979505375872</v>
+        <v>0.1521979419263415</v>
       </c>
       <c r="D22">
-        <v>16325.09605200546</v>
+        <v>16325.0960524586</v>
       </c>
       <c r="E22">
-        <v>3.524979136918775</v>
+        <v>3.524979078725786</v>
       </c>
       <c r="F22">
-        <v>2.350398073631815</v>
+        <v>2.350398062841672</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1396,19 +1396,19 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>165.9368160103344</v>
+        <v>165.9368160106052</v>
       </c>
       <c r="C23">
-        <v>0.1465422525515684</v>
+        <v>0.1465422512944172</v>
       </c>
       <c r="D23">
-        <v>16047.10087648439</v>
+        <v>16047.10087647795</v>
       </c>
       <c r="E23">
-        <v>3.082754011982409</v>
+        <v>3.082754034127276</v>
       </c>
       <c r="F23">
-        <v>6.371312246997999</v>
+        <v>6.371312240562469</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1416,19 +1416,19 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>178.2270084992827</v>
+        <v>178.2270085432474</v>
       </c>
       <c r="C24">
-        <v>0.6562360433901534</v>
+        <v>0.6562360400427828</v>
       </c>
       <c r="D24">
-        <v>15833.59787236559</v>
+        <v>15833.59787149047</v>
       </c>
       <c r="E24">
-        <v>15.04204849023807</v>
+        <v>15.04204841030587</v>
       </c>
       <c r="F24">
-        <v>41.24226471926842</v>
+        <v>41.24226427696738</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1436,19 +1436,19 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>154.351356531526</v>
+        <v>154.3513565315105</v>
       </c>
       <c r="C25">
-        <v>1.050488175034019</v>
+        <v>1.050488111465758</v>
       </c>
       <c r="D25">
-        <v>15030.27429621992</v>
+        <v>15030.27429622033</v>
       </c>
       <c r="E25">
-        <v>23.36260490787399</v>
+        <v>23.36260442452057</v>
       </c>
       <c r="F25">
-        <v>148.707693808324</v>
+        <v>148.7076938083298</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1456,19 +1456,19 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>178.0038818239075</v>
+        <v>178.003881823254</v>
       </c>
       <c r="C26">
-        <v>0.6119119519004868</v>
+        <v>0.611911956646084</v>
       </c>
       <c r="D26">
-        <v>15231.25580145583</v>
+        <v>15231.25580146033</v>
       </c>
       <c r="E26">
-        <v>12.67083680824065</v>
+        <v>12.67083678780468</v>
       </c>
       <c r="F26">
-        <v>61.38467905081515</v>
+        <v>61.38467898616116</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1476,19 +1476,19 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>171.7901528157519</v>
+        <v>171.7901528478975</v>
       </c>
       <c r="C27">
-        <v>0.5982550148033065</v>
+        <v>0.5982550163384176</v>
       </c>
       <c r="D27">
-        <v>15587.08975736258</v>
+        <v>15587.08975663211</v>
       </c>
       <c r="E27">
-        <v>14.20905848300983</v>
+        <v>14.20905854675089</v>
       </c>
       <c r="F27">
-        <v>67.60722407644788</v>
+        <v>67.60722418261646</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1496,19 +1496,19 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>168.6642334822147</v>
+        <v>168.6642334939875</v>
       </c>
       <c r="C28">
-        <v>0.6891860367658347</v>
+        <v>0.6891860900875969</v>
       </c>
       <c r="D28">
-        <v>16329.64316511543</v>
+        <v>16329.6431652655</v>
       </c>
       <c r="E28">
-        <v>16.14758527765262</v>
+        <v>16.14758638136816</v>
       </c>
       <c r="F28">
-        <v>147.8238298677654</v>
+        <v>147.823829867784</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1516,19 +1516,19 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>179.70555820872</v>
+        <v>179.7055581955357</v>
       </c>
       <c r="C29">
-        <v>0.2017766759185293</v>
+        <v>0.2017766797620121</v>
       </c>
       <c r="D29">
-        <v>16277.96279096044</v>
+        <v>16277.96279109966</v>
       </c>
       <c r="E29">
-        <v>4.885490014127996</v>
+        <v>4.885490046140241</v>
       </c>
       <c r="F29">
-        <v>3.911813278146669</v>
+        <v>3.911813250913696</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1536,19 +1536,19 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>160.528037746279</v>
+        <v>160.5280378365366</v>
       </c>
       <c r="C30">
-        <v>0.7881980334189614</v>
+        <v>0.7881980276907908</v>
       </c>
       <c r="D30">
-        <v>15663.74313171971</v>
+        <v>15663.74312952735</v>
       </c>
       <c r="E30">
-        <v>19.11498145766426</v>
+        <v>19.11498122721374</v>
       </c>
       <c r="F30">
-        <v>24.79819174192186</v>
+        <v>24.79819191974392</v>
       </c>
     </row>
   </sheetData>
@@ -1589,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>168.1547037374668</v>
+        <v>168.1547037073711</v>
       </c>
       <c r="C2">
-        <v>0.5921083301211113</v>
+        <v>0.5921083177792429</v>
       </c>
       <c r="D2">
-        <v>15735.02351689613</v>
+        <v>15735.02351747858</v>
       </c>
       <c r="E2">
-        <v>13.35408430122281</v>
+        <v>13.35408399089613</v>
       </c>
       <c r="F2">
-        <v>92.12356380255324</v>
+        <v>92.12356327830861</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1609,19 +1609,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>180.5453572613568</v>
+        <v>180.5453572563997</v>
       </c>
       <c r="C3">
-        <v>0.2529367539572435</v>
+        <v>0.2529367514772976</v>
       </c>
       <c r="D3">
-        <v>16348.45205449118</v>
+        <v>16348.45205448127</v>
       </c>
       <c r="E3">
-        <v>5.829995256295813</v>
+        <v>5.829995283754527</v>
       </c>
       <c r="F3">
-        <v>12.96346942660913</v>
+        <v>12.96346955256812</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1629,19 +1629,19 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>182.6368907385807</v>
+        <v>182.6368907547414</v>
       </c>
       <c r="C4">
-        <v>0.2240777167982547</v>
+        <v>0.2240777209187098</v>
       </c>
       <c r="D4">
-        <v>15904.34724589766</v>
+        <v>15904.34724578977</v>
       </c>
       <c r="E4">
-        <v>4.961422627349009</v>
+        <v>4.961422646817744</v>
       </c>
       <c r="F4">
-        <v>21.11777143960418</v>
+        <v>21.11777141598388</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1649,19 +1649,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>184.9390207020154</v>
+        <v>184.9390207020151</v>
       </c>
       <c r="C5">
-        <v>0.1233111904045352</v>
+        <v>0.1233111987023715</v>
       </c>
       <c r="D5">
-        <v>15582.62084768243</v>
+        <v>15582.62084768244</v>
       </c>
       <c r="E5">
-        <v>2.749677792112798</v>
+        <v>2.74967799996903</v>
       </c>
       <c r="F5">
-        <v>3.095319121662558</v>
+        <v>3.095319121661346</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1669,19 +1669,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>163.5469606843294</v>
+        <v>163.5469606843289</v>
       </c>
       <c r="C6">
-        <v>0.4275658313840968</v>
+        <v>0.427565893147402</v>
       </c>
       <c r="D6">
-        <v>15698.06253422216</v>
+        <v>15698.06253422217</v>
       </c>
       <c r="E6">
-        <v>6.587991736755853</v>
+        <v>6.587992563807552</v>
       </c>
       <c r="F6">
-        <v>48.80068770943853</v>
+        <v>48.80068770943097</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1689,19 +1689,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>164.5256670546644</v>
+        <v>164.5256670625567</v>
       </c>
       <c r="C7">
-        <v>0.366391010425737</v>
+        <v>0.3663910125111695</v>
       </c>
       <c r="D7">
-        <v>15762.98621118716</v>
+        <v>15762.98621099309</v>
       </c>
       <c r="E7">
-        <v>8.623994022521231</v>
+        <v>8.623994217704409</v>
       </c>
       <c r="F7">
-        <v>19.94698925168601</v>
+        <v>19.94698917584789</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>193.1500710390807</v>
+        <v>193.1500710392338</v>
       </c>
       <c r="C8">
-        <v>0.2187249402087433</v>
+        <v>0.2187249509910055</v>
       </c>
       <c r="D8">
-        <v>15721.67063458234</v>
+        <v>15721.67063457315</v>
       </c>
       <c r="E8">
-        <v>4.713278091680698</v>
+        <v>4.713278149781408</v>
       </c>
       <c r="F8">
-        <v>8.217231815061856</v>
+        <v>8.217231818269509</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1729,19 +1729,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>158.8865666589411</v>
+        <v>158.886566626785</v>
       </c>
       <c r="C9">
-        <v>0.5198837812170326</v>
+        <v>0.5198837718967577</v>
       </c>
       <c r="D9">
-        <v>15979.81354593179</v>
+        <v>15979.81354613851</v>
       </c>
       <c r="E9">
-        <v>12.08323677932405</v>
+        <v>12.08323656228455</v>
       </c>
       <c r="F9">
-        <v>66.07133826345789</v>
+        <v>66.07133826344794</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1749,19 +1749,19 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>147.0452572734748</v>
+        <v>147.0452572388593</v>
       </c>
       <c r="C10">
-        <v>0.8631420425133544</v>
+        <v>0.8631420507366531</v>
       </c>
       <c r="D10">
-        <v>15188.99785404355</v>
+        <v>15188.99785417283</v>
       </c>
       <c r="E10">
-        <v>19.46454601669183</v>
+        <v>19.46454609002088</v>
       </c>
       <c r="F10">
-        <v>160.2658983200767</v>
+        <v>160.2658965506656</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1769,19 +1769,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>181.5879416970355</v>
+        <v>181.5879416179585</v>
       </c>
       <c r="C11">
-        <v>0.4034104195796137</v>
+        <v>0.4034104194028178</v>
       </c>
       <c r="D11">
-        <v>15992.71283006993</v>
+        <v>15992.71283214457</v>
       </c>
       <c r="E11">
-        <v>9.758793369366382</v>
+        <v>9.758793370599962</v>
       </c>
       <c r="F11">
-        <v>7.085737380972848</v>
+        <v>7.085737380976543</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1789,19 +1789,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>171.2943522544925</v>
+        <v>171.2943522589188</v>
       </c>
       <c r="C12">
-        <v>0.3090779929746378</v>
+        <v>0.3090779930258775</v>
       </c>
       <c r="D12">
-        <v>15863.85216902193</v>
+        <v>15863.85216882907</v>
       </c>
       <c r="E12">
-        <v>6.353591744537198</v>
+        <v>6.353591749661077</v>
       </c>
       <c r="F12">
-        <v>27.24667593224239</v>
+        <v>27.2466759576455</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1809,19 +1809,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>191.5920912975589</v>
+        <v>191.59209129756</v>
       </c>
       <c r="C13">
-        <v>0.1087436452606337</v>
+        <v>0.1087436444071571</v>
       </c>
       <c r="D13">
         <v>15882.58132921255</v>
       </c>
       <c r="E13">
-        <v>2.174944062161805</v>
+        <v>2.174944062901463</v>
       </c>
       <c r="F13">
-        <v>2.447872664316628</v>
+        <v>2.447872664717542</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1829,19 +1829,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>166.2888655844704</v>
+        <v>166.2888655515052</v>
       </c>
       <c r="C14">
-        <v>0.8451113651694395</v>
+        <v>0.845111329513524</v>
       </c>
       <c r="D14">
-        <v>15148.96887041118</v>
+        <v>15148.96887075564</v>
       </c>
       <c r="E14">
-        <v>19.1201532882972</v>
+        <v>19.12015246562134</v>
       </c>
       <c r="F14">
-        <v>103.3862360845894</v>
+        <v>103.3862354685584</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1849,19 +1849,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>175.4548284636938</v>
+        <v>175.4548284920705</v>
       </c>
       <c r="C15">
-        <v>0.4682612757424764</v>
+        <v>0.4682612043616158</v>
       </c>
       <c r="D15">
-        <v>15739.04465244087</v>
+        <v>15739.04465182076</v>
       </c>
       <c r="E15">
-        <v>11.15689432467295</v>
+        <v>11.15689316587995</v>
       </c>
       <c r="F15">
-        <v>6.418346420265699</v>
+        <v>6.418346420266692</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1869,19 +1869,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>153.7857912668776</v>
+        <v>153.7857912821666</v>
       </c>
       <c r="C16">
-        <v>1.055792488315353</v>
+        <v>1.05579248983712</v>
       </c>
       <c r="D16">
-        <v>15415.42089516806</v>
+        <v>15415.42089540731</v>
       </c>
       <c r="E16">
-        <v>25.33343164566649</v>
+        <v>25.33343166329978</v>
       </c>
       <c r="F16">
-        <v>109.0536209688311</v>
+        <v>109.0536211552047</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1889,19 +1889,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>165.8210570393791</v>
+        <v>165.8210570512202</v>
       </c>
       <c r="C17">
-        <v>0.333236772713339</v>
+        <v>0.3332367727377604</v>
       </c>
       <c r="D17">
-        <v>15587.80907481882</v>
+        <v>15587.80907480242</v>
       </c>
       <c r="E17">
-        <v>6.954495981465707</v>
+        <v>6.954495981456706</v>
       </c>
       <c r="F17">
-        <v>33.17418713563686</v>
+        <v>33.17418713564491</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1909,19 +1909,19 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>175.5531389002989</v>
+        <v>175.5531388966849</v>
       </c>
       <c r="C18">
-        <v>0.2091258755480943</v>
+        <v>0.209125870615455</v>
       </c>
       <c r="D18">
-        <v>15157.5881130807</v>
+        <v>15157.58811312445</v>
       </c>
       <c r="E18">
-        <v>4.359580242075525</v>
+        <v>4.359580174971629</v>
       </c>
       <c r="F18">
-        <v>27.20718612453139</v>
+        <v>27.20718609813729</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1929,19 +1929,19 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>170.1798636367196</v>
+        <v>170.1798637863376</v>
       </c>
       <c r="C19">
-        <v>1.411447493377749</v>
+        <v>1.411447426925137</v>
       </c>
       <c r="D19">
-        <v>15036.03537613866</v>
+        <v>15036.03537280428</v>
       </c>
       <c r="E19">
-        <v>33.35100604472447</v>
+        <v>33.35100608012507</v>
       </c>
       <c r="F19">
-        <v>236.677087096332</v>
+        <v>236.6770870750078</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1949,19 +1949,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>157.0940959370395</v>
+        <v>157.0940959500132</v>
       </c>
       <c r="C20">
-        <v>0.3250571283687916</v>
+        <v>0.3250571285761993</v>
       </c>
       <c r="D20">
-        <v>15552.51240263837</v>
+        <v>15552.51240240861</v>
       </c>
       <c r="E20">
-        <v>6.829476228327337</v>
+        <v>6.829476227107567</v>
       </c>
       <c r="F20">
-        <v>49.31491487001073</v>
+        <v>49.31491487000988</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1969,19 +1969,19 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>163.7416779247192</v>
+        <v>163.7416778590486</v>
       </c>
       <c r="C21">
-        <v>0.736873201161238</v>
+        <v>0.7368732279309675</v>
       </c>
       <c r="D21">
-        <v>15332.23395800562</v>
+        <v>15332.23395947283</v>
       </c>
       <c r="E21">
-        <v>17.43987073453601</v>
+        <v>17.43987138843566</v>
       </c>
       <c r="F21">
-        <v>73.45803250954829</v>
+        <v>73.45803221625975</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1989,19 +1989,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>186.0182354763652</v>
+        <v>186.0182354803683</v>
       </c>
       <c r="C22">
-        <v>0.2466091557074046</v>
+        <v>0.2466091257880145</v>
       </c>
       <c r="D22">
-        <v>15807.41226101836</v>
+        <v>15807.41226082588</v>
       </c>
       <c r="E22">
-        <v>5.818252555468917</v>
+        <v>5.818252052639036</v>
       </c>
       <c r="F22">
-        <v>7.571601319742999</v>
+        <v>7.571601314875944</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2009,19 +2009,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>176.4643966904887</v>
+        <v>176.4643967115096</v>
       </c>
       <c r="C23">
-        <v>0.6107812145742936</v>
+        <v>0.6107812136566103</v>
       </c>
       <c r="D23">
-        <v>16256.45283479037</v>
+        <v>16256.45283449642</v>
       </c>
       <c r="E23">
-        <v>13.87539322675594</v>
+        <v>13.87539351612848</v>
       </c>
       <c r="F23">
-        <v>16.31498214113567</v>
+        <v>16.31498215154528</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2029,19 +2029,19 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>177.7863657061387</v>
+        <v>177.7863657039235</v>
       </c>
       <c r="C24">
-        <v>0.4924076157475917</v>
+        <v>0.4924076153532249</v>
       </c>
       <c r="D24">
-        <v>15610.82538875441</v>
+        <v>15610.82538880963</v>
       </c>
       <c r="E24">
-        <v>11.61059898398973</v>
+        <v>11.61059897490641</v>
       </c>
       <c r="F24">
-        <v>39.94143592464552</v>
+        <v>39.94143586190601</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2049,19 +2049,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>173.5277675035672</v>
+        <v>173.527767502028</v>
       </c>
       <c r="C25">
-        <v>0.53561695438755</v>
+        <v>0.535616963641145</v>
       </c>
       <c r="D25">
-        <v>16582.01472127281</v>
+        <v>16582.01472129377</v>
       </c>
       <c r="E25">
-        <v>13.02734143739607</v>
+        <v>13.02734097176478</v>
       </c>
       <c r="F25">
-        <v>13.58795884477762</v>
+        <v>13.58795879318156</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2069,19 +2069,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>153.5301120555028</v>
+        <v>153.5301120521906</v>
       </c>
       <c r="C26">
-        <v>0.5358522182154988</v>
+        <v>0.5358522043997112</v>
       </c>
       <c r="D26">
-        <v>16038.23530895423</v>
+        <v>16038.23530897758</v>
       </c>
       <c r="E26">
-        <v>9.91012678972506</v>
+        <v>9.91012673434431</v>
       </c>
       <c r="F26">
-        <v>32.20329259733492</v>
+        <v>32.20329243387256</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2089,19 +2089,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>160.280742733344</v>
+        <v>160.2807429212211</v>
       </c>
       <c r="C27">
-        <v>1.093387616612309</v>
+        <v>1.093387507587633</v>
       </c>
       <c r="D27">
-        <v>15914.62231830825</v>
+        <v>15914.62231350922</v>
       </c>
       <c r="E27">
-        <v>26.18246516235039</v>
+        <v>26.18246281904102</v>
       </c>
       <c r="F27">
-        <v>41.05949210181072</v>
+        <v>41.05949201467908</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2109,19 +2109,19 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>166.2981697292135</v>
+        <v>166.2981697045824</v>
       </c>
       <c r="C28">
-        <v>0.5226574436765627</v>
+        <v>0.5226574655406279</v>
       </c>
       <c r="D28">
-        <v>15528.67793445166</v>
+        <v>15528.67793537555</v>
       </c>
       <c r="E28">
-        <v>11.69873816645856</v>
+        <v>11.69873832300023</v>
       </c>
       <c r="F28">
-        <v>74.56090184604254</v>
+        <v>74.5609022537391</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2129,19 +2129,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>157.5994185470745</v>
+        <v>157.5994185121463</v>
       </c>
       <c r="C29">
-        <v>0.9156872909103257</v>
+        <v>0.915687290696696</v>
       </c>
       <c r="D29">
-        <v>15350.30098451674</v>
+        <v>15350.30098550173</v>
       </c>
       <c r="E29">
-        <v>20.62581568039338</v>
+        <v>20.62581568165709</v>
       </c>
       <c r="F29">
-        <v>97.79059633333225</v>
+        <v>97.79059633334587</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2149,19 +2149,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>161.8995093399664</v>
+        <v>161.8995093630208</v>
       </c>
       <c r="C30">
-        <v>0.4936720295486381</v>
+        <v>0.4936720657229348</v>
       </c>
       <c r="D30">
-        <v>16147.63065664776</v>
+        <v>16147.63065612748</v>
       </c>
       <c r="E30">
-        <v>11.79934408868825</v>
+        <v>11.79934496005955</v>
       </c>
       <c r="F30">
-        <v>62.78480045119232</v>
+        <v>62.78480047984961</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2169,19 +2169,19 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>185.265956304793</v>
+        <v>185.2659563055065</v>
       </c>
       <c r="C31">
-        <v>0.3563002334270697</v>
+        <v>0.3563002458019739</v>
       </c>
       <c r="D31">
-        <v>15088.21236884222</v>
+        <v>15088.21236883712</v>
       </c>
       <c r="E31">
-        <v>7.818441716503183</v>
+        <v>7.818442008951237</v>
       </c>
       <c r="F31">
-        <v>21.45009166496866</v>
+        <v>21.45009170293464</v>
       </c>
     </row>
   </sheetData>
@@ -2222,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>149.5786331864153</v>
+        <v>149.5786331374902</v>
       </c>
       <c r="C2">
-        <v>0.6158318969953023</v>
+        <v>0.6158318963466579</v>
       </c>
       <c r="D2">
-        <v>15901.57119519074</v>
+        <v>15901.57119632761</v>
       </c>
       <c r="E2">
-        <v>14.4895156682913</v>
+        <v>14.48951571871198</v>
       </c>
       <c r="F2">
-        <v>66.43742777559393</v>
+        <v>66.43742765539334</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>165.6180395134357</v>
+        <v>165.6180395339792</v>
       </c>
       <c r="C3">
-        <v>0.4689840990084135</v>
+        <v>0.4689840809877</v>
       </c>
       <c r="D3">
-        <v>14880.12969364665</v>
+        <v>14880.12969303521</v>
       </c>
       <c r="E3">
-        <v>10.48047588816054</v>
+        <v>10.48047546646023</v>
       </c>
       <c r="F3">
-        <v>23.47506523661818</v>
+        <v>23.47506525304047</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>169.8413348715809</v>
+        <v>169.8413348608839</v>
       </c>
       <c r="C4">
-        <v>0.3932965878542034</v>
+        <v>0.3932966099317527</v>
       </c>
       <c r="D4">
-        <v>15176.82437887863</v>
+        <v>15176.82437929974</v>
       </c>
       <c r="E4">
-        <v>9.238456362952451</v>
+        <v>9.238456505932263</v>
       </c>
       <c r="F4">
-        <v>17.2494666005518</v>
+        <v>17.24946652618326</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>170.0292195788978</v>
+        <v>170.0292195925218</v>
       </c>
       <c r="C5">
-        <v>0.2174538180785665</v>
+        <v>0.2174538504814126</v>
       </c>
       <c r="D5">
-        <v>15992.10937535176</v>
+        <v>15992.10937501773</v>
       </c>
       <c r="E5">
-        <v>4.860136253480982</v>
+        <v>4.860136740651278</v>
       </c>
       <c r="F5">
-        <v>9.797532898253849</v>
+        <v>9.797532898245342</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>144.6897235503804</v>
+        <v>144.6897235153698</v>
       </c>
       <c r="C6">
-        <v>0.8470762590919538</v>
+        <v>0.8470762576675521</v>
       </c>
       <c r="D6">
-        <v>15838.58395778226</v>
+        <v>15838.58395901383</v>
       </c>
       <c r="E6">
-        <v>19.63328042659131</v>
+        <v>19.633280400137</v>
       </c>
       <c r="F6">
-        <v>92.52186052339263</v>
+        <v>92.52186025724225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>167.2831301935672</v>
+        <v>167.2831301977863</v>
       </c>
       <c r="C7">
-        <v>0.2682341039314819</v>
+        <v>0.2682341081009058</v>
       </c>
       <c r="D7">
-        <v>16101.8797508603</v>
+        <v>16101.87975059032</v>
       </c>
       <c r="E7">
-        <v>6.487954166078653</v>
+        <v>6.48795418796785</v>
       </c>
       <c r="F7">
-        <v>5.952634229618853</v>
+        <v>5.952634133151351</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>179.4383131781443</v>
+        <v>179.4383131781412</v>
       </c>
       <c r="C8">
-        <v>0.6585469112455312</v>
+        <v>0.6585469601579444</v>
       </c>
       <c r="D8">
-        <v>15590.5097977735</v>
+        <v>15590.50979777365</v>
       </c>
       <c r="E8">
-        <v>15.60441810950047</v>
+        <v>15.60441847727363</v>
       </c>
       <c r="F8">
-        <v>72.59972259276498</v>
+        <v>72.59972259275168</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2365,16 +2365,16 @@
         <v>174.8260140810184</v>
       </c>
       <c r="C9">
-        <v>0.06430972874026884</v>
+        <v>0.06430972891803051</v>
       </c>
       <c r="D9">
         <v>16028.65177275858</v>
       </c>
       <c r="E9">
-        <v>1.437492161338565</v>
+        <v>1.437492219998926</v>
       </c>
       <c r="F9">
-        <v>0.67414075028203</v>
+        <v>0.6741407502863962</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>165.9448911087215</v>
+        <v>165.9448911164708</v>
       </c>
       <c r="C10">
-        <v>0.1578832165301617</v>
+        <v>0.1578832296741401</v>
       </c>
       <c r="D10">
-        <v>16512.08340540178</v>
+        <v>16512.08340526588</v>
       </c>
       <c r="E10">
-        <v>3.283058483642337</v>
+        <v>3.283058756819339</v>
       </c>
       <c r="F10">
-        <v>5.627338004275489</v>
+        <v>5.627338004282056</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>171.2887442076</v>
+        <v>171.2887442074166</v>
       </c>
       <c r="C11">
-        <v>0.0876381378487935</v>
+        <v>0.08763814426143866</v>
       </c>
       <c r="D11">
-        <v>16110.57455520822</v>
+        <v>16110.57455521267</v>
       </c>
       <c r="E11">
-        <v>2.063000570529544</v>
+        <v>2.063000731050173</v>
       </c>
       <c r="F11">
-        <v>0.4554651204941551</v>
+        <v>0.4554651207540107</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>157.6183357359392</v>
+        <v>157.6183357157689</v>
       </c>
       <c r="C12">
-        <v>0.4979222848191618</v>
+        <v>0.4979222811849305</v>
       </c>
       <c r="D12">
-        <v>15189.45791227405</v>
+        <v>15189.45791277424</v>
       </c>
       <c r="E12">
-        <v>11.48974688147521</v>
+        <v>11.48974678756215</v>
       </c>
       <c r="F12">
-        <v>37.08000666771422</v>
+        <v>37.08000613488799</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>178.9227755765194</v>
+        <v>178.9227756180951</v>
       </c>
       <c r="C13">
-        <v>0.3032453072218698</v>
+        <v>0.3032453384783523</v>
       </c>
       <c r="D13">
-        <v>15729.18467964707</v>
+        <v>15729.18467878209</v>
       </c>
       <c r="E13">
-        <v>6.339179911271046</v>
+        <v>6.339180377699932</v>
       </c>
       <c r="F13">
-        <v>12.6755676469479</v>
+        <v>12.67556764690878</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>158.8200550244281</v>
+        <v>158.8200551186051</v>
       </c>
       <c r="C14">
-        <v>1.83890413267436</v>
+        <v>1.838904082489575</v>
       </c>
       <c r="D14">
-        <v>15127.90005062007</v>
+        <v>15127.90004738169</v>
       </c>
       <c r="E14">
-        <v>44.96246546709096</v>
+        <v>44.96246485142001</v>
       </c>
       <c r="F14">
-        <v>62.87476135607469</v>
+        <v>62.87476135606206</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>161.3796262840817</v>
+        <v>161.3796262356567</v>
       </c>
       <c r="C15">
-        <v>0.5722799395800936</v>
+        <v>0.5722799412713028</v>
       </c>
       <c r="D15">
-        <v>15966.29862846936</v>
+        <v>15966.29862938255</v>
       </c>
       <c r="E15">
-        <v>12.19844336709009</v>
+        <v>12.1984434860956</v>
       </c>
       <c r="F15">
-        <v>39.25252803006207</v>
+        <v>39.25252801998323</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>165.3449814012293</v>
+        <v>165.3449814176956</v>
       </c>
       <c r="C16">
-        <v>0.5384711795337684</v>
+        <v>0.5384711773146311</v>
       </c>
       <c r="D16">
-        <v>15736.1125195134</v>
+        <v>15736.11251912132</v>
       </c>
       <c r="E16">
-        <v>12.9492806213087</v>
+        <v>12.94928053620037</v>
       </c>
       <c r="F16">
-        <v>23.17049868636684</v>
+        <v>23.1704987274986</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>142.5745871050384</v>
+        <v>142.5745871324027</v>
       </c>
       <c r="C17">
-        <v>0.7454161714295248</v>
+        <v>0.7454162241847112</v>
       </c>
       <c r="D17">
-        <v>15670.2879752336</v>
+        <v>15670.2879745747</v>
       </c>
       <c r="E17">
-        <v>17.57223126556741</v>
+        <v>17.57223251967468</v>
       </c>
       <c r="F17">
-        <v>24.85371072794749</v>
+        <v>24.85371074463785</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>156.9574366610993</v>
+        <v>156.9574366940537</v>
       </c>
       <c r="C18">
-        <v>1.27345890657144</v>
+        <v>1.273458895152392</v>
       </c>
       <c r="D18">
-        <v>15302.20403722572</v>
+        <v>15302.20403653113</v>
       </c>
       <c r="E18">
-        <v>28.80943199385896</v>
+        <v>28.809431858934</v>
       </c>
       <c r="F18">
-        <v>79.75089993693005</v>
+        <v>79.75090011255477</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>165.549804745047</v>
+        <v>165.5498047450388</v>
       </c>
       <c r="C19">
-        <v>0.7072104349656585</v>
+        <v>0.7072103839916218</v>
       </c>
       <c r="D19">
-        <v>15887.79511364065</v>
+        <v>15887.79511364088</v>
       </c>
       <c r="E19">
-        <v>15.67703869638722</v>
+        <v>15.67703830984659</v>
       </c>
       <c r="F19">
-        <v>71.94940833200138</v>
+        <v>71.94940833203026</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>165.2659291683208</v>
+        <v>165.265929170502</v>
       </c>
       <c r="C20">
-        <v>0.3700504832766281</v>
+        <v>0.3700504788521878</v>
       </c>
       <c r="D20">
-        <v>15155.03962504302</v>
+        <v>15155.03962504938</v>
       </c>
       <c r="E20">
-        <v>8.673579715326325</v>
+        <v>8.673579737806465</v>
       </c>
       <c r="F20">
-        <v>39.52199855914057</v>
+        <v>39.52199862809474</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>179.2779450402474</v>
+        <v>179.2779450609574</v>
       </c>
       <c r="C21">
-        <v>0.2017466939182531</v>
+        <v>0.2017466939417968</v>
       </c>
       <c r="D21">
-        <v>15832.91842180721</v>
+        <v>15832.91842137515</v>
       </c>
       <c r="E21">
-        <v>4.567061479976737</v>
+        <v>4.567061479852634</v>
       </c>
       <c r="F21">
-        <v>4.913617978756788</v>
+        <v>4.9136179787661</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>155.885450077179</v>
+        <v>155.8854500859243</v>
       </c>
       <c r="C22">
-        <v>0.6981272844540478</v>
+        <v>0.6981272855710102</v>
       </c>
       <c r="D22">
-        <v>15176.20922791354</v>
+        <v>15176.20922772474</v>
       </c>
       <c r="E22">
-        <v>14.64063486938508</v>
+        <v>14.64063489867613</v>
       </c>
       <c r="F22">
-        <v>84.25513769994906</v>
+        <v>84.25513769784652</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>167.8755913503897</v>
+        <v>167.8755913285724</v>
       </c>
       <c r="C23">
-        <v>0.4335855435355309</v>
+        <v>0.4335855117092716</v>
       </c>
       <c r="D23">
-        <v>15935.61992274278</v>
+        <v>15935.61992327059</v>
       </c>
       <c r="E23">
-        <v>9.97686643388232</v>
+        <v>9.976866103035917</v>
       </c>
       <c r="F23">
-        <v>57.06369702251427</v>
+        <v>57.06369650521325</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>165.0133524691304</v>
+        <v>165.0133524875984</v>
       </c>
       <c r="C24">
-        <v>0.4514266042428984</v>
+        <v>0.4514265533124467</v>
       </c>
       <c r="D24">
-        <v>15734.7921312985</v>
+        <v>15734.79213138383</v>
       </c>
       <c r="E24">
-        <v>11.07221297151978</v>
+        <v>11.07221221536629</v>
       </c>
       <c r="F24">
-        <v>18.37756453074957</v>
+        <v>18.37756459630166</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>160.5503505026567</v>
+        <v>160.5503504710823</v>
       </c>
       <c r="C25">
-        <v>0.5895453363061743</v>
+        <v>0.5895453379174275</v>
       </c>
       <c r="D25">
-        <v>15386.12558886862</v>
+        <v>15386.12558911037</v>
       </c>
       <c r="E25">
-        <v>14.21437719382108</v>
+        <v>14.21437726794293</v>
       </c>
       <c r="F25">
-        <v>52.80513324567698</v>
+        <v>52.80513331086365</v>
       </c>
     </row>
   </sheetData>
